--- a/database/industries/zeraat/zegoldasht/cashflow/yearly.xlsx
+++ b/database/industries/zeraat/zegoldasht/cashflow/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\zegoldasht\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F80C1D-6B91-40FA-AC07-1C22EECFFA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD194AF-0CE2-4C9F-A721-F6BD5723A97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -702,14 +702,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -718,7 +718,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -749,7 +749,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -780,7 +780,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -822,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -831,7 +831,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -842,7 +842,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
@@ -863,7 +863,7 @@
         <v>767257</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -884,7 +884,7 @@
         <v>-1057</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
@@ -905,7 +905,7 @@
         <v>766200</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
@@ -926,7 +926,7 @@
         <v>237894</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>22</v>
       </c>
@@ -947,7 +947,7 @@
         <v>-676270</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>23</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>24</v>
       </c>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>-1637924</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>26</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>27</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>-19610</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>30</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>33</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
         <v>34</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>35</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>36</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>37</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>38</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>39</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>6201</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>40</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>-2039709</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
         <v>41</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>-1273509</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>42</v>
       </c>
@@ -1347,7 +1347,7 @@
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>43</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>147408</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>-7330</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>1505182</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>49</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>50</v>
       </c>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>-275753</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>59</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>1369507</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B54" s="18" t="s">
         <v>60</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>95998</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>117028</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>213034</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>64</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>312592</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>

--- a/database/industries/zeraat/zegoldasht/cashflow/yearly.xlsx
+++ b/database/industries/zeraat/zegoldasht/cashflow/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD194AF-0CE2-4C9F-A721-F6BD5723A97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E033E513-572C-4999-84CC-99C2BE60AA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1398-03-13 (16)</t>
-  </si>
-  <si>
     <t>1399-02-22 (14)</t>
   </si>
   <si>
@@ -67,7 +64,10 @@
     <t>1401-02-26 (9)</t>
   </si>
   <si>
-    <t>1401-10-29 (7)</t>
+    <t>1402-02-29 (8)</t>
+  </si>
+  <si>
+    <t>1402-02-29</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -702,14 +702,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -718,7 +718,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -740,7 +740,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -749,7 +749,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -760,7 +760,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -771,7 +771,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -780,7 +780,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -822,7 +822,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -831,7 +831,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -842,70 +842,70 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>78067</v>
+        <v>128815</v>
       </c>
       <c r="E12" s="15">
-        <v>128815</v>
+        <v>212052</v>
       </c>
       <c r="F12" s="15">
-        <v>212052</v>
+        <v>194476</v>
       </c>
       <c r="G12" s="15">
-        <v>194476</v>
+        <v>767257</v>
       </c>
       <c r="H12" s="15">
-        <v>767257</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1458679</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-464</v>
+        <v>-762</v>
       </c>
       <c r="E13" s="11">
-        <v>-762</v>
+        <v>-121</v>
       </c>
       <c r="F13" s="11">
-        <v>-121</v>
+        <v>-216</v>
       </c>
       <c r="G13" s="11">
-        <v>-216</v>
+        <v>-1057</v>
       </c>
       <c r="H13" s="11">
-        <v>-1057</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1698</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>77603</v>
+        <v>128053</v>
       </c>
       <c r="E14" s="17">
-        <v>128053</v>
+        <v>211931</v>
       </c>
       <c r="F14" s="17">
-        <v>211931</v>
+        <v>194260</v>
       </c>
       <c r="G14" s="17">
-        <v>194260</v>
+        <v>766200</v>
       </c>
       <c r="H14" s="17">
-        <v>766200</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1456981</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
@@ -916,17 +916,17 @@
       <c r="E15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>21</v>
+      <c r="F15" s="11">
+        <v>146398</v>
       </c>
       <c r="G15" s="11">
-        <v>146398</v>
+        <v>237894</v>
       </c>
       <c r="H15" s="11">
-        <v>237894</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>442130</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>22</v>
       </c>
@@ -937,17 +937,17 @@
       <c r="E16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>21</v>
+      <c r="F16" s="15">
+        <v>-309320</v>
       </c>
       <c r="G16" s="15">
-        <v>-309320</v>
+        <v>-676270</v>
       </c>
       <c r="H16" s="15">
-        <v>-676270</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1467135</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>23</v>
       </c>
@@ -958,55 +958,55 @@
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
-        <v>55908</v>
+        <v>121097</v>
       </c>
       <c r="E18" s="15">
-        <v>121097</v>
+        <v>112799</v>
       </c>
       <c r="F18" s="15">
-        <v>112799</v>
+        <v>2265</v>
       </c>
       <c r="G18" s="15">
-        <v>2265</v>
+        <v>0</v>
       </c>
       <c r="H18" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>-98373</v>
+        <v>-144547</v>
       </c>
       <c r="E19" s="11">
-        <v>-144547</v>
+        <v>-650422</v>
       </c>
       <c r="F19" s="11">
-        <v>-650422</v>
+        <v>-1187880</v>
       </c>
       <c r="G19" s="11">
-        <v>-1187880</v>
+        <v>-1637924</v>
       </c>
       <c r="H19" s="11">
-        <v>-1637924</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-914267</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="15"/>
-      <c r="D20" s="15" t="s">
-        <v>21</v>
+      <c r="D20" s="15">
+        <v>0</v>
       </c>
       <c r="E20" s="15">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>27</v>
       </c>
@@ -1042,28 +1042,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
-        <v>0</v>
+        <v>-70</v>
       </c>
       <c r="E22" s="15">
-        <v>-70</v>
+        <v>-850</v>
       </c>
       <c r="F22" s="15">
-        <v>-850</v>
+        <v>-52984</v>
       </c>
       <c r="G22" s="15">
-        <v>-52984</v>
+        <v>-19610</v>
       </c>
       <c r="H22" s="15">
-        <v>-19610</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>30</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>31</v>
       </c>
@@ -1120,34 +1120,34 @@
         <v>0</v>
       </c>
       <c r="G25" s="11">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H25" s="11">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
-        <v>0</v>
+        <v>-2231</v>
       </c>
       <c r="E26" s="15">
-        <v>-2231</v>
+        <v>0</v>
       </c>
       <c r="F26" s="15">
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="G26" s="15">
-        <v>-50000</v>
+        <v>0</v>
       </c>
       <c r="H26" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>33</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>34</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>35</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>36</v>
       </c>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="11"/>
-      <c r="D31" s="11" t="s">
-        <v>21</v>
+      <c r="D31" s="11">
+        <v>0</v>
       </c>
       <c r="E31" s="11">
         <v>0</v>
@@ -1252,13 +1252,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="15"/>
       <c r="D32" s="15">
-        <v>511</v>
+        <v>0</v>
       </c>
       <c r="E32" s="15">
         <v>0</v>
@@ -1273,70 +1273,70 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11">
-        <v>2326</v>
+        <v>1742</v>
       </c>
       <c r="E33" s="11">
-        <v>1742</v>
+        <v>108</v>
       </c>
       <c r="F33" s="11">
-        <v>108</v>
+        <v>1375</v>
       </c>
       <c r="G33" s="11">
-        <v>1375</v>
+        <v>6201</v>
       </c>
       <c r="H33" s="11">
-        <v>6201</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C34" s="17"/>
       <c r="D34" s="17">
-        <v>-39628</v>
+        <v>-24009</v>
       </c>
       <c r="E34" s="17">
-        <v>-24009</v>
+        <v>-538365</v>
       </c>
       <c r="F34" s="17">
-        <v>-538365</v>
+        <v>-1450146</v>
       </c>
       <c r="G34" s="17">
-        <v>-1450146</v>
+        <v>-2039709</v>
       </c>
       <c r="H34" s="17">
-        <v>-2039709</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1930435</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19">
-        <v>37975</v>
+        <v>104044</v>
       </c>
       <c r="E35" s="19">
-        <v>104044</v>
+        <v>-326434</v>
       </c>
       <c r="F35" s="19">
-        <v>-326434</v>
+        <v>-1255886</v>
       </c>
       <c r="G35" s="19">
-        <v>-1255886</v>
+        <v>-1273509</v>
       </c>
       <c r="H35" s="19">
-        <v>-1273509</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-473454</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>42</v>
       </c>
@@ -1347,7 +1347,7 @@
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>43</v>
       </c>
@@ -1362,13 +1362,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="15">
-        <v>0</v>
+        <v>147408</v>
       </c>
       <c r="H37" s="15">
-        <v>147408</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1379,8 +1379,8 @@
       <c r="E38" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>21</v>
+      <c r="F38" s="11">
+        <v>0</v>
       </c>
       <c r="G38" s="11">
         <v>0</v>
@@ -1389,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1425,82 +1425,82 @@
         <v>0</v>
       </c>
       <c r="G40" s="11">
-        <v>0</v>
+        <v>-7330</v>
       </c>
       <c r="H40" s="11">
-        <v>-7330</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>0</v>
+        <v>49000</v>
       </c>
       <c r="E41" s="15">
-        <v>49000</v>
+        <v>425000</v>
       </c>
       <c r="F41" s="15">
-        <v>425000</v>
+        <v>1318850</v>
       </c>
       <c r="G41" s="15">
-        <v>1318850</v>
+        <v>1505182</v>
       </c>
       <c r="H41" s="15">
-        <v>1505182</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1258694</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
-        <v>-7630</v>
+        <v>-59124</v>
       </c>
       <c r="E42" s="11">
-        <v>-59124</v>
+        <v>-2687</v>
       </c>
       <c r="F42" s="11">
-        <v>-2687</v>
+        <v>0</v>
       </c>
       <c r="G42" s="11">
         <v>0</v>
       </c>
       <c r="H42" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-538940</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
-        <v>-15829</v>
+        <v>-9760</v>
       </c>
       <c r="E43" s="15">
-        <v>-9760</v>
+        <v>-61</v>
       </c>
       <c r="F43" s="15">
-        <v>-61</v>
+        <v>0</v>
       </c>
       <c r="G43" s="15">
         <v>0</v>
       </c>
       <c r="H43" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-106291</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C44" s="11"/>
-      <c r="D44" s="11" t="s">
-        <v>21</v>
+      <c r="D44" s="11">
+        <v>0</v>
       </c>
       <c r="E44" s="11">
         <v>0</v>
@@ -1515,13 +1515,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="15"/>
-      <c r="D45" s="15" t="s">
-        <v>21</v>
+      <c r="D45" s="15">
+        <v>0</v>
       </c>
       <c r="E45" s="15">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="11"/>
-      <c r="D46" s="11" t="s">
-        <v>21</v>
+      <c r="D46" s="11">
+        <v>0</v>
       </c>
       <c r="E46" s="11">
         <v>0</v>
@@ -1557,13 +1557,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C47" s="15"/>
-      <c r="D47" s="15" t="s">
-        <v>21</v>
+      <c r="D47" s="15">
+        <v>0</v>
       </c>
       <c r="E47" s="15">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C48" s="11"/>
-      <c r="D48" s="11" t="s">
-        <v>21</v>
+      <c r="D48" s="11">
+        <v>0</v>
       </c>
       <c r="E48" s="11">
         <v>0</v>
@@ -1599,13 +1599,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C49" s="15"/>
-      <c r="D49" s="15" t="s">
-        <v>21</v>
+      <c r="D49" s="15">
+        <v>0</v>
       </c>
       <c r="E49" s="15">
         <v>0</v>
@@ -1620,13 +1620,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C50" s="11"/>
-      <c r="D50" s="11" t="s">
-        <v>21</v>
+      <c r="D50" s="11">
+        <v>0</v>
       </c>
       <c r="E50" s="11">
         <v>0</v>
@@ -1641,13 +1641,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C51" s="15"/>
-      <c r="D51" s="15" t="s">
-        <v>21</v>
+      <c r="D51" s="15">
+        <v>0</v>
       </c>
       <c r="E51" s="15">
         <v>0</v>
@@ -1662,91 +1662,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11">
-        <v>-16066</v>
+        <v>-69630</v>
       </c>
       <c r="E52" s="11">
-        <v>-69630</v>
+        <v>-10384</v>
       </c>
       <c r="F52" s="11">
-        <v>-10384</v>
+        <v>-47234</v>
       </c>
       <c r="G52" s="11">
-        <v>-47234</v>
+        <v>-275753</v>
       </c>
       <c r="H52" s="11">
-        <v>-275753</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-163969</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="16" t="s">
         <v>59</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="17">
-        <v>-39525</v>
+        <v>-89514</v>
       </c>
       <c r="E53" s="17">
-        <v>-89514</v>
+        <v>411868</v>
       </c>
       <c r="F53" s="17">
-        <v>411868</v>
+        <v>1271616</v>
       </c>
       <c r="G53" s="17">
-        <v>1271616</v>
+        <v>1369507</v>
       </c>
       <c r="H53" s="17">
-        <v>1369507</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+        <v>449494</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C54" s="19"/>
       <c r="D54" s="19">
-        <v>-1550</v>
+        <v>14530</v>
       </c>
       <c r="E54" s="19">
-        <v>14530</v>
+        <v>85434</v>
       </c>
       <c r="F54" s="19">
-        <v>85434</v>
+        <v>15730</v>
       </c>
       <c r="G54" s="19">
-        <v>15730</v>
+        <v>95998</v>
       </c>
       <c r="H54" s="19">
-        <v>95998</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-23960</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>61</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
-        <v>2742</v>
+        <v>1192</v>
       </c>
       <c r="E55" s="15">
-        <v>1192</v>
+        <v>15722</v>
       </c>
       <c r="F55" s="15">
-        <v>15722</v>
+        <v>101177</v>
       </c>
       <c r="G55" s="15">
-        <v>101177</v>
+        <v>117028</v>
       </c>
       <c r="H55" s="15">
-        <v>117028</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+        <v>213034</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1755,46 +1755,46 @@
         <v>0</v>
       </c>
       <c r="E56" s="11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F56" s="11">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="G56" s="11">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="H56" s="11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
-        <v>1192</v>
+        <v>15722</v>
       </c>
       <c r="E57" s="17">
-        <v>15722</v>
+        <v>101177</v>
       </c>
       <c r="F57" s="17">
-        <v>101177</v>
+        <v>117028</v>
       </c>
       <c r="G57" s="17">
-        <v>117028</v>
+        <v>213034</v>
       </c>
       <c r="H57" s="17">
-        <v>213034</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>189242</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11">
-        <v>49000</v>
+        <v>0</v>
       </c>
       <c r="E58" s="11">
         <v>0</v>
@@ -1803,13 +1803,13 @@
         <v>0</v>
       </c>
       <c r="G58" s="11">
-        <v>0</v>
+        <v>312592</v>
       </c>
       <c r="H58" s="11">
-        <v>312592</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>7047</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
